--- a/tareas_v2/mariana48/pandas/LCDataDictionary.xlsx
+++ b/tareas_v2/mariana48/pandas/LCDataDictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8fc76b82a67f60ee/Escritorio/ITAM/FDD/Github/fdd_prim_2023/tareas_v2/mariana48/pandas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_30162170FAB48E56213CC231C71B05BB41D6533F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_30162170FAB48E56213CC231C71B05BB41D6533F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99C225A5-3730-4EBE-9496-69361B4332DF}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1644" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8712" yWindow="0" windowWidth="14424" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoanStats" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="385">
   <si>
     <t>id</t>
   </si>
@@ -1197,6 +1197,12 @@
   </si>
   <si>
     <t>The method by which the borrower receives their loan. Possible values are: CASH, DIRECT_PAY</t>
+  </si>
+  <si>
+    <t>Ratio of total current balance to hi+B32+B11</t>
+  </si>
+  <si>
+    <t>Number of personal finance inquiries+B32+B11+B12</t>
   </si>
 </sst>
 </file>
@@ -1945,6 +1951,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2238,8 +2248,8 @@
   <dimension ref="A1:C154"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A115" sqref="A115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2335,7 +2345,7 @@
         <v>297</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>52</v>
+        <v>383</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -2343,7 +2353,7 @@
         <v>105</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>130</v>
+        <v>384</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
